--- a/UI11.xlsx
+++ b/UI11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="angular" sheetId="6" r:id="rId5"/>
     <sheet name="SDLC" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>home</t>
   </si>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,15 +761,32 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
